--- a/ASP_Group_11_Agile_Assignment.xlsx
+++ b/ASP_Group_11_Agile_Assignment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tcsdatacifs09.corp.trizetto.com\citrixprofiles\sandya.shanmugham.upm\DATA\Documents\Agile Assignment\BITS_Agile_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634e289c93caf340/Documents/Agile/BITS_Agile_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_854CCD190158E9640505B57F584B1C1AC921DD47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D19510-2F79-48B1-A492-76B598C83595}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Agile_Ceremonies_Benefits" sheetId="4" r:id="rId4"/>
     <sheet name="Case Study 2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="238">
   <si>
     <t xml:space="preserve">Assignment evalution citeria </t>
   </si>
@@ -310,9 +311,6 @@
     <t>1.1.1) Setup the Git repostory for Dev environment.</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Dev environments.</t>
-  </si>
-  <si>
     <t>1. Coding should be done.                         2. Test cases for all scenarios covered.                                   3.Sonarqube report should be more than 85%.                                                     4. Source clear report should be successful                                                     5. User Acceptance Testing.                    6. Coding Standards Should be follow.                                                 7. Test Scripts only execute in Dev and Test environment.</t>
   </si>
   <si>
@@ -325,19 +323,10 @@
     <t>2.1.1) Setup the Server and Database for Dev environment.</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environments, i.e. Dev.</t>
-  </si>
-  <si>
     <t>3. CI/CD setup fro Dev environment.</t>
   </si>
   <si>
-    <t>3.1) Setup the CI/CD.</t>
-  </si>
-  <si>
     <t>3.1.1) perform the setup for CI/CD pipeline for Dev environment.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Dev environments.</t>
   </si>
   <si>
     <t>4. Facify-me home page</t>
@@ -453,9 +442,6 @@
     <t>11.1.1) Setup the Git repostory for Prod environments.</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Prod environments.</t>
-  </si>
-  <si>
     <t>12. Server Setup for  Prod environemnt.</t>
   </si>
   <si>
@@ -463,21 +449,6 @@
   </si>
   <si>
     <t>12.1.1) Setup the Server and Database for Prod environments.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environments, i.e. Prod.</t>
-  </si>
-  <si>
-    <t>13. CI/CD setup for environment.</t>
-  </si>
-  <si>
-    <t>13.1) Setup the CI/CD.</t>
-  </si>
-  <si>
-    <t>13.1.1) perform the setup for CI/CD pipeline for Dev environments.</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Prod environments.</t>
   </si>
   <si>
     <t>14. Registration Module</t>
@@ -846,12 +817,45 @@
 ii) Scrum master should inform the team in advance that             retrospective board is ready so that they can prepare their points in advance.
 iii) Scrum master has to ensure backlog is ready and should inform       team members in advance to have a look. (Sprint planning)</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>13. CI/CD setup for Prod environment.</t>
+  </si>
+  <si>
+    <t>13.1) Setup the CI/CD for Prod Environment.</t>
+  </si>
+  <si>
+    <t>13.1.1) perform the setup for CI/CD pipeline for Prod environments.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Prod environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environment, i.e. Prod.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Prod environment.</t>
+  </si>
+  <si>
+    <t>3.1) Setup the CI/CD Dev.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria- Succesfully completed the CI/CD pipeline setup for Dev environment.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully completed the setup for servers and databases for all the three environment, i.e. Dev.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Successfully Completed the Git repository setup for Dev environment.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,7 +1319,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1450,6 +1454,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1459,8 +1466,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1679,30 +1686,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="16" dataCellStyle="Output">
-  <autoFilter ref="A1:H53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H53" totalsRowShown="0" dataDxfId="16" dataCellStyle="Output">
+  <autoFilter ref="A1:H53" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Module" dataCellStyle="Output"/>
-    <tableColumn id="2" name="Details" dataDxfId="15" dataCellStyle="Output"/>
-    <tableColumn id="3" name="User  Stories" dataDxfId="14" dataCellStyle="Output"/>
-    <tableColumn id="4" name="Acceptance Criteria" dataDxfId="13" dataCellStyle="Output"/>
-    <tableColumn id="5" name="Story point " dataDxfId="12" dataCellStyle="Output"/>
-    <tableColumn id="6" name="Sprint" dataDxfId="11" dataCellStyle="Output"/>
-    <tableColumn id="7" name="Testable" dataDxfId="10" dataCellStyle="Output"/>
-    <tableColumn id="9" name="Column4" dataDxfId="9" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Details" dataDxfId="15" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="User  Stories" dataDxfId="14" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Acceptance Criteria" dataDxfId="13" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story point " dataDxfId="12" dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sprint" dataDxfId="11" dataCellStyle="Output"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Testable" dataDxfId="10" dataCellStyle="Output"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column4" dataDxfId="9" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sl.No" dataDxfId="3"/>
-    <tableColumn id="2" name="Ceremonies" dataDxfId="2"/>
-    <tableColumn id="3" name="Benefits" dataDxfId="1"/>
-    <tableColumn id="4" name="Schedule" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sl.No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Ceremonies" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Benefits" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Schedule" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,28 +2011,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="58"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2041,7 +2048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2049,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="42" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2057,17 +2064,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -2127,9 +2134,9 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-    <hyperlink ref="C14" r:id="rId2"/>
-    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2137,174 +2144,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="17.399999999999999">
       <c r="A1" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="26.4">
       <c r="A8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="39.6">
       <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="26.4">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="26.4">
       <c r="A23" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="12"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="20"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="20" t="s">
         <v>44</v>
       </c>
@@ -2316,25 +2323,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -2357,10 +2364,10 @@
         <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="201.6">
       <c r="A2" s="25" t="s">
         <v>78</v>
       </c>
@@ -2371,7 +2378,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E2" s="26">
         <v>5</v>
@@ -2379,23 +2386,25 @@
       <c r="F2" s="29">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H2" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="56.4" customHeight="1">
+      <c r="A3" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" s="25" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="E3" s="26">
         <v>8</v>
@@ -2403,21 +2412,23 @@
       <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
-    <row r="4" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="168.75" customHeight="1">
       <c r="A4" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="E4" s="26">
         <v>8</v>
@@ -2425,18 +2436,20 @@
       <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H4" s="29"/>
     </row>
-    <row r="5" spans="1:8" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="145.19999999999999" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>50</v>
@@ -2447,16 +2460,18 @@
       <c r="F5" s="29">
         <v>1</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H5" s="29"/>
     </row>
-    <row r="6" spans="1:8" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="160.19999999999999" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>57</v>
@@ -2467,19 +2482,21 @@
       <c r="F6" s="29">
         <v>1</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="89.4" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="26">
         <v>5</v>
@@ -2487,17 +2504,19 @@
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="43.2" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="26">
         <v>8</v>
@@ -2505,17 +2524,19 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="48" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E9" s="26">
         <v>8</v>
@@ -2523,21 +2544,23 @@
       <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="112.5" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E10" s="26">
         <v>5</v>
@@ -2545,21 +2568,23 @@
       <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="141.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="26">
         <v>8</v>
@@ -2567,21 +2592,23 @@
       <c r="F11" s="29">
         <v>1</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="147" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E12" s="26">
         <v>8</v>
@@ -2589,17 +2616,19 @@
       <c r="F12" s="29">
         <v>1</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="43.2" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E13" s="26">
         <v>5</v>
@@ -2607,38 +2636,40 @@
       <c r="F13" s="29">
         <v>1</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="60" t="s">
+        <v>227</v>
+      </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="32" customFormat="1" ht="54" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E14" s="30">
         <f>SUM(E2:E13)</f>
         <v>84</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="57.6">
       <c r="A15" s="29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" s="26">
         <v>8</v>
@@ -2649,18 +2680,18 @@
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="43.2">
       <c r="A16" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
@@ -2671,18 +2702,18 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="57.6">
       <c r="A17" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="E17" s="26">
         <v>8</v>
@@ -2693,18 +2724,18 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="60.6" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="E18" s="26">
         <v>8</v>
@@ -2715,15 +2746,15 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" ht="190.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="190.95" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>51</v>
@@ -2737,13 +2768,13 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="201.6">
       <c r="A20" s="27"/>
       <c r="B20" s="29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>52</v>
@@ -2757,13 +2788,13 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="201.6">
       <c r="A21" s="27"/>
       <c r="B21" s="29" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>53</v>
@@ -2777,16 +2808,16 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2">
       <c r="A22" s="27"/>
       <c r="B22" s="25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E22" s="26">
         <v>8</v>
@@ -2797,18 +2828,18 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="57.6">
       <c r="A23" s="29" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="26">
         <v>8</v>
@@ -2819,14 +2850,14 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="1:8" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="32" customFormat="1" ht="42" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E15:E23)</f>
@@ -2836,18 +2867,18 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43.2">
       <c r="A25" s="34" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E25" s="26">
         <v>5</v>
@@ -2858,14 +2889,14 @@
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2">
       <c r="A26" s="34"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E26" s="26">
         <v>8</v>
@@ -2876,14 +2907,14 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="43.2">
       <c r="A27" s="34"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E27" s="26">
         <v>5</v>
@@ -2894,16 +2925,16 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2">
       <c r="A28" s="34"/>
       <c r="B28" s="29" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E28" s="26">
         <v>5</v>
@@ -2914,17 +2945,17 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="1:8" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="47.4" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E29" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" s="29">
         <v>3</v>
@@ -2932,18 +2963,18 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
     </row>
-    <row r="30" spans="1:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="64.2" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E30" s="26">
         <v>8</v>
@@ -2954,18 +2985,18 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
     </row>
-    <row r="31" spans="1:8" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="67.95" customHeight="1">
       <c r="A31" s="33" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E31" s="26">
         <v>5</v>
@@ -2976,18 +3007,18 @@
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
     </row>
-    <row r="32" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="60.6" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32" s="26">
         <v>8</v>
@@ -2998,18 +3029,18 @@
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
     </row>
-    <row r="33" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="69.599999999999994" customHeight="1">
       <c r="A33" s="33" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E33" s="26">
         <v>5</v>
@@ -3020,17 +3051,17 @@
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
     </row>
-    <row r="34" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="43.95" customHeight="1">
       <c r="A34" s="33"/>
       <c r="B34" s="29"/>
       <c r="C34" s="25" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E34" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" s="29">
         <v>3</v>
@@ -3038,14 +3069,14 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
     </row>
-    <row r="35" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="49.2" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="29"/>
       <c r="C35" s="25" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E35" s="26">
         <v>8</v>
@@ -3056,35 +3087,35 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="32" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="35" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="36"/>
       <c r="D36" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36" s="30">
         <f>SUM(E25:E35)</f>
-        <v>63</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" ht="57.6">
       <c r="A37" s="29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E37" s="26">
         <v>8</v>
@@ -3095,15 +3126,15 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
     </row>
-    <row r="38" spans="1:8" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="108.6" customHeight="1">
       <c r="A38" s="34" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>54</v>
@@ -3117,14 +3148,14 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
     </row>
-    <row r="39" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="49.2" customHeight="1">
       <c r="A39" s="34"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E39" s="26">
         <v>5</v>
@@ -3133,14 +3164,14 @@
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="43.2">
       <c r="A40" s="34"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E40" s="26">
         <v>3</v>
@@ -3151,14 +3182,14 @@
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
     </row>
-    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="43.2">
       <c r="A41" s="34"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E41" s="26">
         <v>8</v>
@@ -3169,18 +3200,18 @@
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
     </row>
-    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="57.6">
       <c r="A42" s="29" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -3191,15 +3222,15 @@
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
     </row>
-    <row r="43" spans="1:8" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="108.6" customHeight="1">
       <c r="A43" s="33" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>55</v>
@@ -3213,14 +3244,14 @@
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
     </row>
-    <row r="44" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="43.2" customHeight="1">
       <c r="A44" s="33"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E44" s="26">
         <v>5</v>
@@ -3231,14 +3262,14 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
     </row>
-    <row r="45" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="57.6" customHeight="1">
       <c r="A45" s="33"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E45" s="26">
         <v>8</v>
@@ -3249,18 +3280,18 @@
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
     </row>
-    <row r="46" spans="1:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="89.4" customHeight="1">
       <c r="A46" s="29" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E46" s="26">
         <v>8</v>
@@ -3271,18 +3302,18 @@
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
     </row>
-    <row r="47" spans="1:8" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="73.2" customHeight="1">
       <c r="A47" s="33" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E47" s="26">
         <v>8</v>
@@ -3293,14 +3324,14 @@
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
     </row>
-    <row r="48" spans="1:8" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="67.2" customHeight="1">
       <c r="A48" s="33"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E48" s="26">
         <v>5</v>
@@ -3311,18 +3342,18 @@
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
     </row>
-    <row r="49" spans="1:8" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="73.2" customHeight="1">
       <c r="A49" s="29" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E49" s="26">
         <v>5</v>
@@ -3333,15 +3364,15 @@
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
     </row>
-    <row r="50" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="60" customHeight="1">
       <c r="A50" s="33" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>56</v>
@@ -3355,18 +3386,18 @@
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
     </row>
-    <row r="51" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="63.6" customHeight="1">
       <c r="A51" s="29" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E51" s="26">
         <v>5</v>
@@ -3377,14 +3408,14 @@
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
     </row>
-    <row r="52" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="51" customHeight="1">
       <c r="A52" s="37" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E52" s="30">
         <f>SUM(E37:E51)</f>
@@ -3394,13 +3425,13 @@
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
     </row>
-    <row r="53" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="44.4" customHeight="1">
       <c r="D53" s="39" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E53" s="38">
         <f>SUM(E52,E36,E24,E14)</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
@@ -3429,21 +3460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="45" t="s">
         <v>66</v>
       </c>
@@ -3457,7 +3488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="78.75" customHeight="1">
       <c r="A2" s="48">
         <v>1</v>
       </c>
@@ -3465,13 +3496,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D2" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="105">
       <c r="A3" s="48">
         <v>2</v>
       </c>
@@ -3479,13 +3510,13 @@
         <v>62</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="75">
       <c r="A4" s="48">
         <v>3</v>
       </c>
@@ -3493,13 +3524,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="120">
       <c r="A5" s="48">
         <v>4</v>
       </c>
@@ -3507,13 +3538,13 @@
         <v>63</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="120">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -3537,70 +3568,70 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="58"/>
+    <row r="1" spans="1:7" ht="17.399999999999999">
+      <c r="A1" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="59"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="231" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="187.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="115.2">
       <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2">
       <c r="A5" s="43">
         <v>4</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/ASP_Group_11_Agile_Assignment.xlsx
+++ b/ASP_Group_11_Agile_Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634e289c93caf340/Documents/Agile/BITS_Agile_Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_854CCD190158E9640505B57F584B1C1AC921DD47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0D19510-2F79-48B1-A492-76B598C83595}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_854CCD190158E9640505B57F584B1C1AC921DD47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489B8920-9708-4E57-A268-9F08AFCFDFB8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evalution citeria " sheetId="1" r:id="rId1"/>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>Total Points of 4 Sprint Backlogs</t>
-  </si>
-  <si>
-    <t>Column4</t>
   </si>
   <si>
     <t xml:space="preserve">14.1.1)	Create Registration webpage for each Member with their access_groups name and only general admin can access this page to add the other members details.
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>Acceptance Criteria - Successfully Completed the Git repository setup for Dev environment.</t>
+  </si>
+  <si>
+    <t>Definition of Done</t>
   </si>
 </sst>
 </file>
@@ -1457,6 +1457,9 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1465,9 +1468,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1696,7 +1696,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Story point " dataDxfId="12" dataCellStyle="Output"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sprint" dataDxfId="11" dataCellStyle="Output"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Testable" dataDxfId="10" dataCellStyle="Output"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column4" dataDxfId="9" dataCellStyle="Output"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Definition of Done" dataDxfId="9" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2027,10 +2027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3">
@@ -2147,7 +2147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2275,12 +2275,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2298,7 +2298,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -2326,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2364,7 +2364,7 @@
         <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="201.6">
@@ -2378,7 +2378,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" s="26">
         <v>5</v>
@@ -2386,8 +2386,8 @@
       <c r="F2" s="29">
         <v>1</v>
       </c>
-      <c r="G2" s="60" t="s">
-        <v>227</v>
+      <c r="G2" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>81</v>
@@ -2404,7 +2404,7 @@
         <v>84</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="26">
         <v>8</v>
@@ -2412,8 +2412,8 @@
       <c r="F3" s="29">
         <v>1</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>227</v>
+      <c r="G3" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H3" s="29"/>
     </row>
@@ -2422,13 +2422,13 @@
         <v>85</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="26">
         <v>8</v>
@@ -2436,8 +2436,8 @@
       <c r="F4" s="29">
         <v>1</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>227</v>
+      <c r="G4" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -2460,8 +2460,8 @@
       <c r="F5" s="29">
         <v>1</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>227</v>
+      <c r="G5" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -2482,8 +2482,8 @@
       <c r="F6" s="29">
         <v>1</v>
       </c>
-      <c r="G6" s="60" t="s">
-        <v>227</v>
+      <c r="G6" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H6" s="29"/>
     </row>
@@ -2504,8 +2504,8 @@
       <c r="F7" s="29">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>227</v>
+      <c r="G7" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H7" s="29"/>
     </row>
@@ -2524,8 +2524,8 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>227</v>
+      <c r="G8" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H8" s="29"/>
     </row>
@@ -2544,8 +2544,8 @@
       <c r="F9" s="29">
         <v>1</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>227</v>
+      <c r="G9" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -2568,8 +2568,8 @@
       <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>227</v>
+      <c r="G10" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H10" s="29"/>
     </row>
@@ -2592,8 +2592,8 @@
       <c r="F11" s="29">
         <v>1</v>
       </c>
-      <c r="G11" s="60" t="s">
-        <v>227</v>
+      <c r="G11" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H11" s="29"/>
     </row>
@@ -2616,8 +2616,8 @@
       <c r="F12" s="29">
         <v>1</v>
       </c>
-      <c r="G12" s="60" t="s">
-        <v>227</v>
+      <c r="G12" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H12" s="29"/>
     </row>
@@ -2636,8 +2636,8 @@
       <c r="F13" s="29">
         <v>1</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>227</v>
+      <c r="G13" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="H13" s="29"/>
     </row>
@@ -2691,7 +2691,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="26">
         <v>8</v>
@@ -2713,7 +2713,7 @@
         <v>124</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" s="26">
         <v>8</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="18" spans="1:8" ht="60.6" customHeight="1">
       <c r="A18" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="C18" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="E18" s="26">
         <v>8</v>
@@ -2754,7 +2754,7 @@
         <v>126</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>51</v>
@@ -3496,7 +3496,7 @@
         <v>61</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="51" t="s">
         <v>71</v>
@@ -3510,7 +3510,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>70</v>
@@ -3524,7 +3524,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>72</v>
@@ -3538,7 +3538,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>73</v>
@@ -3582,10 +3582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="59"/>
+      <c r="A1" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="60"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="187.2">
@@ -3605,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="115.2">
@@ -3613,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2">
@@ -3621,17 +3621,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
